--- a/sTools/excelTable/skill.xlsx
+++ b/sTools/excelTable/skill.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,12 +59,66 @@
         </r>
       </text>
     </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：需要目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：不需要目标</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>skillID(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +241,14 @@
   </si>
   <si>
     <t>飞行物/陷阱自带范围效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -563,17 +625,18 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,46 +653,49 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -646,46 +712,49 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -702,25 +771,34 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -737,22 +815,31 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sTools/excelTable/skill.xlsx
+++ b/sTools/excelTable/skill.xlsx
@@ -28,33 +28,83 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">直接伤害
-2.飞行物
-3.陷阱
-4.位移
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">跟随型飞行物
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">.Entity型飞行物
+4.陷阱
+5.位移
 </t>
         </r>
       </text>
@@ -110,6 +160,60 @@
             <charset val="134"/>
           </rPr>
           <t>：不需要目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：不可移动
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：可以移动</t>
         </r>
       </text>
     </comment>
@@ -118,16 +222,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>skillID(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillNameID(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,22 +308,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>命中后技能效果0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物/陷阱自带范围效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C)skillNameID(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{hitSkillEffect(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中后技能效果0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{selfSkillEffect(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}se1(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se1(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,23 +340,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>se3(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>}se4(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>se3(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行物/陷阱自带范围效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向性</t>
+    <t>selfSkillEffect(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +386,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -613,17 +721,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
@@ -632,129 +740,122 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -794,11 +895,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -818,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -838,7 +939,51 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
     </row>

--- a/sTools/excelTable/skill.xlsx
+++ b/sTools/excelTable/skill.xlsx
@@ -721,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -984,6 +984,50 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
